--- a/backend/contacts.xlsx
+++ b/backend/contacts.xlsx
@@ -397,7 +397,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F16"/>
+  <dimension ref="A1:F25"/>
   <sheetViews>
     <sheetView workbookViewId="0" rightToLeft="0"/>
   </sheetViews>
@@ -573,7 +573,7 @@
         <v>akanksha@edzest.org</v>
       </c>
       <c r="C15" t="str" xml:space="preserve">
-        <v xml:space="preserve">hii_x000d_
+        <v xml:space="preserve">hii_x000d__x000d_
 </v>
       </c>
     </row>
@@ -588,9 +588,108 @@
         <v>m</v>
       </c>
     </row>
+    <row r="17">
+      <c r="A17" t="str">
+        <v>Akanksha kumari</v>
+      </c>
+      <c r="B17" t="str">
+        <v>happychaudhary123spj@gmail.com</v>
+      </c>
+      <c r="C17" t="str">
+        <v>hi</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="str">
+        <v>Akanksha kumari</v>
+      </c>
+      <c r="B18" t="str">
+        <v>happychaudhary123spj@gmail.com</v>
+      </c>
+      <c r="C18" t="str">
+        <v>hi</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="str">
+        <v>Akanksha kumari</v>
+      </c>
+      <c r="B19" t="str">
+        <v>happychaudhary123spj@gmail.com</v>
+      </c>
+      <c r="C19" t="str">
+        <v xml:space="preserve">hello </v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="str">
+        <v>Akanksha kumari</v>
+      </c>
+      <c r="B20" t="str">
+        <v>happychaudhary123spj@gmail.com</v>
+      </c>
+      <c r="C20" t="str">
+        <v xml:space="preserve">hi </v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="str">
+        <v>Akanksha kumari</v>
+      </c>
+      <c r="B21" t="str">
+        <v>happychaudhary123spj@gmail.com</v>
+      </c>
+      <c r="C21" t="str">
+        <v>hi be</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="str">
+        <v>Akanksha  kumari</v>
+      </c>
+      <c r="B22" t="str">
+        <v>akanksha@edzest.org</v>
+      </c>
+      <c r="C22" t="str">
+        <v>hlo be</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="str">
+        <v>Akanksha  kumari</v>
+      </c>
+      <c r="B23" t="str">
+        <v>akanksha@edzest.org</v>
+      </c>
+      <c r="C23" t="str">
+        <v>hlo be</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="str">
+        <v>Akanksha  kumari</v>
+      </c>
+      <c r="B24" t="str">
+        <v>akanksha@edzest.org</v>
+      </c>
+      <c r="C24" t="str">
+        <v>hlo be</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="str">
+        <v>Akanksha kumari</v>
+      </c>
+      <c r="B25" t="str">
+        <v>happychaudhary123spj@gmail.com</v>
+      </c>
+      <c r="C25" t="str">
+        <v>gg</v>
+      </c>
+    </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:F16"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:F25"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/backend/contacts.xlsx
+++ b/backend/contacts.xlsx
@@ -1,41 +1,156 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28324"/>
   <workbookPr codeName="ThisWorkbook"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\happy\Desktop\Edzestweb\edzest-website-3\backend\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D3AA627A-AF19-4A6F-B235-41D19B916923}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <bookViews>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+  </bookViews>
   <sheets>
     <sheet name="Contacts" sheetId="1" r:id="rId1"/>
   </sheets>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
-<file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
-<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xlrd="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
-  <metadataTypes count="1">
-    <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
-  </metadataTypes>
-  <futureMetadata name="XLDAPR" count="1">
-    <bk>
-      <extLst>
-        <ext uri="{bdbb8cdc-fa1e-496e-a857-3c3f30c029c3}">
-          <xda:dynamicArrayProperties fDynamic="1" fCollapsed="0"/>
-        </ext>
-      </extLst>
-    </bk>
-  </futureMetadata>
-  <cellMetadata count="1">
-    <bk>
-      <rc t="1" v="0"/>
-    </bk>
-  </cellMetadata>
-</metadata>
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="41">
+  <si>
+    <t>Name</t>
+  </si>
+  <si>
+    <t>Email</t>
+  </si>
+  <si>
+    <t>Message</t>
+  </si>
+  <si>
+    <t>Akanksha Kumari</t>
+  </si>
+  <si>
+    <t>happychaudhary123spj@gmail.com</t>
+  </si>
+  <si>
+    <t>i want to join pmp classes</t>
+  </si>
+  <si>
+    <t>Aman kuamar</t>
+  </si>
+  <si>
+    <t>akjha@gmail.com</t>
+  </si>
+  <si>
+    <t>12345567890</t>
+  </si>
+  <si>
+    <t>Amit</t>
+  </si>
+  <si>
+    <t>amit@edzest.org</t>
+  </si>
+  <si>
+    <t>welcome to edzest education services</t>
+  </si>
+  <si>
+    <t>Aman</t>
+  </si>
+  <si>
+    <t>akjha2302@gmail.com</t>
+  </si>
+  <si>
+    <t>hii</t>
+  </si>
+  <si>
+    <t>Happy Chaudhary</t>
+  </si>
+  <si>
+    <t>theakankshavlogs99@gmail.com</t>
+  </si>
+  <si>
+    <t>hey</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Akanksha </t>
+  </si>
+  <si>
+    <t>kumari</t>
+  </si>
+  <si>
+    <t>6299119033</t>
+  </si>
+  <si>
+    <t>cs</t>
+  </si>
+  <si>
+    <t>sapna jha</t>
+  </si>
+  <si>
+    <t>hey how are you</t>
+  </si>
+  <si>
+    <t>Akanksha kumari</t>
+  </si>
+  <si>
+    <t>Akanksha</t>
+  </si>
+  <si>
+    <t>Happy</t>
+  </si>
+  <si>
+    <t>hyy</t>
+  </si>
+  <si>
+    <t>welcome</t>
+  </si>
+  <si>
+    <t>Akanksha  kumari</t>
+  </si>
+  <si>
+    <t>akanksha@edzest.org</t>
+  </si>
+  <si>
+    <t xml:space="preserve">hii_x000D__x000D_
+</t>
+  </si>
+  <si>
+    <t>m</t>
+  </si>
+  <si>
+    <t>hi</t>
+  </si>
+  <si>
+    <t xml:space="preserve">hello </t>
+  </si>
+  <si>
+    <t xml:space="preserve">hi </t>
+  </si>
+  <si>
+    <t>hi be</t>
+  </si>
+  <si>
+    <t>hlo be</t>
+  </si>
+  <si>
+    <t>gg</t>
+  </si>
+  <si>
+    <t>akku kumari</t>
+  </si>
+  <si>
+    <t>kkk</t>
+  </si>
+</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:vt="http://schemas.openxmlformats.org/officeDocument/2006/docPropsVTypes">
-  <numFmts count="1">
-    <numFmt numFmtId="56" formatCode="&quot;上午/下午 &quot;hh&quot;時&quot;mm&quot;分&quot;ss&quot;秒 &quot;"/>
-  </numFmts>
-  <fonts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -65,13 +180,21 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -396,300 +519,328 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F25"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:F27"/>
   <sheetViews>
-    <sheetView workbookViewId="0" rightToLeft="0"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0"/>
   </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="21.69921875" customWidth="1"/>
+    <col min="2" max="2" width="65.69921875" customWidth="1"/>
+    <col min="3" max="3" width="50.19921875" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1">
-      <c r="A1" t="str">
-        <v>Name</v>
-      </c>
-      <c r="B1" t="str">
-        <v>Email</v>
-      </c>
-      <c r="C1" t="str">
-        <v>Message</v>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="str">
-        <v>Akanksha Kumari</v>
-      </c>
-      <c r="B2" t="str">
-        <v>happychaudhary123spj@gmail.com</v>
-      </c>
-      <c r="C2" t="str">
-        <v>i want to join pmp classes</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="str">
-        <v>Aman kuamar</v>
-      </c>
-      <c r="B3" t="str">
-        <v>akjha@gmail.com</v>
-      </c>
-      <c r="C3" t="str">
-        <v>12345567890</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="str">
-        <v>Amit</v>
-      </c>
-      <c r="B4" t="str">
-        <v>amit@edzest.org</v>
-      </c>
-      <c r="C4" t="str">
-        <v>welcome to edzest education services</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="str">
-        <v>Aman</v>
-      </c>
-      <c r="B5" t="str">
-        <v>akjha2302@gmail.com</v>
-      </c>
-      <c r="C5" t="str">
-        <v>hii</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="str">
-        <v>Happy Chaudhary</v>
-      </c>
-      <c r="B6" t="str">
-        <v>theakankshavlogs99@gmail.com</v>
-      </c>
-      <c r="C6" t="str">
-        <v>hey</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="str">
-        <v xml:space="preserve">Akanksha </v>
-      </c>
-      <c r="B7" t="str">
-        <v>kumari</v>
-      </c>
-      <c r="C7" t="str">
-        <v>happychaudhary123spj@gmail.com</v>
-      </c>
-      <c r="D7" t="str">
-        <v>6299119033</v>
-      </c>
-      <c r="E7" t="str">
-        <v>cs</v>
-      </c>
-      <c r="F7" t="str">
-        <v>hey</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="str">
-        <v>Akanksha Kumari</v>
-      </c>
-      <c r="B8" t="str">
-        <v>happychaudhary123spj@gmail.com</v>
-      </c>
-      <c r="C8" t="str">
-        <v>hey</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="str">
-        <v>sapna jha</v>
-      </c>
-      <c r="B9" t="str">
-        <v>happychaudhary123spj@gmail.com</v>
-      </c>
-      <c r="C9" t="str">
-        <v>hey how are you</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="str">
-        <v>Akanksha kumari</v>
-      </c>
-      <c r="B10" t="str">
-        <v>happychaudhary123spj@gmail.com</v>
-      </c>
-      <c r="C10" t="str">
-        <v>hey</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="str">
-        <v>Akanksha</v>
-      </c>
-      <c r="B11" t="str">
-        <v>theakankshavlogs99@gmail.com</v>
-      </c>
-      <c r="C11" t="str">
-        <v>hey</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="str">
-        <v>Akanksha</v>
-      </c>
-      <c r="B12" t="str">
-        <v>theakankshavlogs99@gmail.com</v>
-      </c>
-      <c r="C12" t="str">
-        <v>hey</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="str">
-        <v>Happy</v>
-      </c>
-      <c r="B13" t="str">
-        <v>happychaudhary123spj@gmail.com</v>
-      </c>
-      <c r="C13" t="str">
-        <v>hyy</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="str">
-        <v>Akanksha Kumari</v>
-      </c>
-      <c r="B14" t="str">
-        <v>happychaudhary123spj@gmail.com</v>
-      </c>
-      <c r="C14" t="str">
-        <v>welcome</v>
-      </c>
-    </row>
-    <row r="15" xml:space="preserve">
-      <c r="A15" t="str">
-        <v>Akanksha  kumari</v>
-      </c>
-      <c r="B15" t="str">
-        <v>akanksha@edzest.org</v>
-      </c>
-      <c r="C15" t="str" xml:space="preserve">
-        <v xml:space="preserve">hii_x000d__x000d_
-</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="str">
-        <v>Akanksha  kumari</v>
-      </c>
-      <c r="B16" t="str">
-        <v>happychaudhary123spj@gmail.com</v>
-      </c>
-      <c r="C16" t="str">
-        <v>m</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="str">
-        <v>Akanksha kumari</v>
-      </c>
-      <c r="B17" t="str">
-        <v>happychaudhary123spj@gmail.com</v>
-      </c>
-      <c r="C17" t="str">
-        <v>hi</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="str">
-        <v>Akanksha kumari</v>
-      </c>
-      <c r="B18" t="str">
-        <v>happychaudhary123spj@gmail.com</v>
-      </c>
-      <c r="C18" t="str">
-        <v>hi</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="str">
-        <v>Akanksha kumari</v>
-      </c>
-      <c r="B19" t="str">
-        <v>happychaudhary123spj@gmail.com</v>
-      </c>
-      <c r="C19" t="str">
-        <v xml:space="preserve">hello </v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" t="str">
-        <v>Akanksha kumari</v>
-      </c>
-      <c r="B20" t="str">
-        <v>happychaudhary123spj@gmail.com</v>
-      </c>
-      <c r="C20" t="str">
-        <v xml:space="preserve">hi </v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" t="str">
-        <v>Akanksha kumari</v>
-      </c>
-      <c r="B21" t="str">
-        <v>happychaudhary123spj@gmail.com</v>
-      </c>
-      <c r="C21" t="str">
-        <v>hi be</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" t="str">
-        <v>Akanksha  kumari</v>
-      </c>
-      <c r="B22" t="str">
-        <v>akanksha@edzest.org</v>
-      </c>
-      <c r="C22" t="str">
-        <v>hlo be</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" t="str">
-        <v>Akanksha  kumari</v>
-      </c>
-      <c r="B23" t="str">
-        <v>akanksha@edzest.org</v>
-      </c>
-      <c r="C23" t="str">
-        <v>hlo be</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" t="str">
-        <v>Akanksha  kumari</v>
-      </c>
-      <c r="B24" t="str">
-        <v>akanksha@edzest.org</v>
-      </c>
-      <c r="C24" t="str">
-        <v>hlo be</v>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" t="str">
-        <v>Akanksha kumari</v>
-      </c>
-      <c r="B25" t="str">
-        <v>happychaudhary123spj@gmail.com</v>
-      </c>
-      <c r="C25" t="str">
-        <v>gg</v>
+    <row r="1" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>12</v>
+      </c>
+      <c r="B5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C5" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>15</v>
+      </c>
+      <c r="B6" t="s">
+        <v>16</v>
+      </c>
+      <c r="C6" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>18</v>
+      </c>
+      <c r="B7" t="s">
+        <v>19</v>
+      </c>
+      <c r="C7" t="s">
+        <v>4</v>
+      </c>
+      <c r="D7" t="s">
+        <v>20</v>
+      </c>
+      <c r="E7" t="s">
+        <v>21</v>
+      </c>
+      <c r="F7" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>3</v>
+      </c>
+      <c r="B8" t="s">
+        <v>4</v>
+      </c>
+      <c r="C8" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>22</v>
+      </c>
+      <c r="B9" t="s">
+        <v>4</v>
+      </c>
+      <c r="C9" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>24</v>
+      </c>
+      <c r="B10" t="s">
+        <v>4</v>
+      </c>
+      <c r="C10" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>25</v>
+      </c>
+      <c r="B11" t="s">
+        <v>16</v>
+      </c>
+      <c r="C11" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>25</v>
+      </c>
+      <c r="B12" t="s">
+        <v>16</v>
+      </c>
+      <c r="C12" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>26</v>
+      </c>
+      <c r="B13" t="s">
+        <v>4</v>
+      </c>
+      <c r="C13" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>3</v>
+      </c>
+      <c r="B14" t="s">
+        <v>4</v>
+      </c>
+      <c r="C14" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>29</v>
+      </c>
+      <c r="B15" t="s">
+        <v>30</v>
+      </c>
+      <c r="C15" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>29</v>
+      </c>
+      <c r="B16" t="s">
+        <v>4</v>
+      </c>
+      <c r="C16" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>24</v>
+      </c>
+      <c r="B17" t="s">
+        <v>4</v>
+      </c>
+      <c r="C17" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
+        <v>24</v>
+      </c>
+      <c r="B18" t="s">
+        <v>4</v>
+      </c>
+      <c r="C18" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>24</v>
+      </c>
+      <c r="B19" t="s">
+        <v>4</v>
+      </c>
+      <c r="C19" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
+        <v>24</v>
+      </c>
+      <c r="B20" t="s">
+        <v>4</v>
+      </c>
+      <c r="C20" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A21" t="s">
+        <v>24</v>
+      </c>
+      <c r="B21" t="s">
+        <v>4</v>
+      </c>
+      <c r="C21" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
+        <v>29</v>
+      </c>
+      <c r="B22" t="s">
+        <v>30</v>
+      </c>
+      <c r="C22" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A23" t="s">
+        <v>29</v>
+      </c>
+      <c r="B23" t="s">
+        <v>30</v>
+      </c>
+      <c r="C23" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A24" t="s">
+        <v>29</v>
+      </c>
+      <c r="B24" t="s">
+        <v>30</v>
+      </c>
+      <c r="C24" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A25" t="s">
+        <v>24</v>
+      </c>
+      <c r="B25" t="s">
+        <v>4</v>
+      </c>
+      <c r="C25" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A26" t="s">
+        <v>39</v>
+      </c>
+      <c r="B26" t="s">
+        <v>16</v>
+      </c>
+      <c r="C26" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A27" t="s">
+        <v>39</v>
+      </c>
+      <c r="B27" t="s">
+        <v>16</v>
+      </c>
+      <c r="C27" t="s">
+        <v>38</v>
       </c>
     </row>
   </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:F25"/>
+    <ignoredError sqref="A1:F27" numberStoredAsText="1"/>
   </ignoredErrors>
 </worksheet>
 </file>